--- a/data/trans_dic/P55$auxiliar-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P55$auxiliar-Provincia-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.2381445441605357</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3199185375231328</v>
+        <v>0.3199185375231329</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0.2694016603878811</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2175905039101385</v>
+        <v>0.2175905039101386</v>
       </c>
     </row>
     <row r="5">
@@ -712,30 +712,30 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08819108460066044</v>
+        <v>0.08805449770666421</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02550014034435308</v>
+        <v>0.02597205481235302</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
-        <v>0.1170657211421675</v>
+        <v>0.114568715818859</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08810110634110313</v>
+        <v>0.08866572957603967</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2094798116735147</v>
+        <v>0.2074294193797611</v>
       </c>
       <c r="K5" s="5" t="inlineStr"/>
       <c r="L5" s="5" t="n">
-        <v>0.1030730687980405</v>
+        <v>0.1011494072832174</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1352676043831162</v>
+        <v>0.1411051519366419</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1423569851702892</v>
+        <v>0.1510106494102084</v>
       </c>
     </row>
     <row r="6">
@@ -747,33 +747,33 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.3324448939673979</v>
+        <v>0.4155310253293577</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6316780408327791</v>
+        <v>0.7161463601984994</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2234885617076183</v>
+        <v>0.2279363424215998</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.4532204873147355</v>
+        <v>0.4560967344315172</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4606245179692295</v>
+        <v>0.4620850324061772</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4357388430841726</v>
+        <v>0.4449292204459091</v>
       </c>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="n">
-        <v>0.3557815574936473</v>
+        <v>0.3505062636443486</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4530256868897988</v>
+        <v>0.4532456523796097</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3050688714389906</v>
+        <v>0.3040678175017475</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.03675446304690756</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.1619648567204914</v>
+        <v>0.1619648567204915</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.0273329526137852</v>
@@ -837,31 +837,31 @@
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.05444225353261191</v>
+        <v>0.05456567619699391</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0779906742677304</v>
+        <v>0.08014952504243968</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.09326319380570701</v>
+        <v>0.09391479216469266</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06622003674757077</v>
+        <v>0.07986092707235373</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.09907894634478616</v>
+        <v>0.1018583426357287</v>
       </c>
     </row>
     <row r="9">
@@ -873,35 +873,35 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.2802870695031159</v>
+        <v>0.3101516679956491</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.3932103039817789</v>
+        <v>0.3904612331762765</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2700855959645244</v>
+        <v>0.2467676711110632</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3216890618855457</v>
+        <v>0.3441582053064596</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2100085324066741</v>
+        <v>0.1721384854105318</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2462853362022785</v>
+        <v>0.2467477364647543</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1125954216242924</v>
+        <v>0.1158681866606818</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2548544008443075</v>
+        <v>0.2654643004766987</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1472658424962223</v>
+        <v>0.1138360708565357</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2383958072401965</v>
+        <v>0.2392464612480183</v>
       </c>
     </row>
     <row r="10">
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2368763497822842</v>
+        <v>0.2368763497822843</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2254904913924487</v>
+        <v>0.2254904913924486</v>
       </c>
     </row>
     <row r="11">
@@ -963,23 +963,23 @@
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.1071814745983133</v>
+        <v>0.09361170553808999</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
-        <v>0.197358273901162</v>
+        <v>0.1978238834782524</v>
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.1519149848039395</v>
+        <v>0.1503633233953039</v>
       </c>
       <c r="K11" s="5" t="inlineStr"/>
       <c r="L11" s="5" t="n">
-        <v>0.1044856704101662</v>
+        <v>0.1072468327231771</v>
       </c>
       <c r="M11" s="5" t="inlineStr"/>
       <c r="N11" s="5" t="n">
-        <v>0.1555693697183136</v>
+        <v>0.1601067810530905</v>
       </c>
     </row>
     <row r="12">
@@ -993,23 +993,23 @@
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.3454512684764345</v>
+        <v>0.33802902288564</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.5572647825257179</v>
+        <v>0.5641259192071366</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.3333092323447444</v>
+        <v>0.3360869371484044</v>
       </c>
       <c r="K12" s="5" t="inlineStr"/>
       <c r="L12" s="5" t="n">
-        <v>0.3942151216463952</v>
+        <v>0.3932717422176312</v>
       </c>
       <c r="M12" s="5" t="inlineStr"/>
       <c r="N12" s="5" t="n">
-        <v>0.299951315405327</v>
+        <v>0.3086573923782772</v>
       </c>
     </row>
     <row r="13">
@@ -1033,7 +1033,7 @@
         <v>0.1292164561815932</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3682618173548143</v>
+        <v>0.3682618173548142</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1020852470749512</v>
@@ -1045,7 +1045,7 @@
         <v>0.08537840978917538</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.274530824209965</v>
+        <v>0.2745308242099649</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.07191634098746211</v>
@@ -1073,31 +1073,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2030761998684943</v>
+        <v>0.2006877973201331</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03238617998988227</v>
+        <v>0.0333540680264582</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02938600681179183</v>
+        <v>0.02971649757833765</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.193296362017549</v>
+        <v>0.1959141024502531</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02350739437572684</v>
+        <v>0.02358470204699482</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01994833633432423</v>
+        <v>0.02010393306668213</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02956300707947125</v>
+        <v>0.03165363573303467</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2220727052578193</v>
+        <v>0.2245142328323994</v>
       </c>
     </row>
     <row r="15">
@@ -1110,34 +1110,34 @@
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.3989929684793305</v>
+        <v>0.3877264077836678</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5522557518375004</v>
+        <v>0.5718742247628621</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2850773923259333</v>
+        <v>0.2522601117330597</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2704853462928394</v>
+        <v>0.2510432580991709</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2635756327733574</v>
+        <v>0.2766304902693382</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3714818186191868</v>
+        <v>0.3773524566092776</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1913012113241464</v>
+        <v>0.1883743921078354</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1741860094042932</v>
+        <v>0.1592635556685296</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2350475808716418</v>
+        <v>0.2499968775937537</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3923135318284794</v>
+        <v>0.4030425785977069</v>
       </c>
     </row>
     <row r="16">
@@ -1173,7 +1173,7 @@
         <v>0.09498264119126573</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3147727886744307</v>
+        <v>0.3147727886744308</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.03845489584509309</v>
@@ -1185,7 +1185,7 @@
         <v>0.07888111007102562</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3332696154030784</v>
+        <v>0.3332696154030783</v>
       </c>
     </row>
     <row r="17">
@@ -1197,35 +1197,35 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.1224599519039952</v>
+        <v>0.1243173629701339</v>
       </c>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
-        <v>0.1794938662971489</v>
+        <v>0.1259729888607509</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08203666633895335</v>
+        <v>0.0779153517486645</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1864727287132631</v>
+        <v>0.1997574153332397</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1262499214556163</v>
+        <v>0.1233264653297104</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2287777747940855</v>
+        <v>0.2110063741621868</v>
       </c>
     </row>
     <row r="18">
@@ -1237,35 +1237,35 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.7537794399548252</v>
+        <v>0.7561981241708891</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.6289923591419522</v>
+        <v>0.619239074847546</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.311549703596799</v>
+        <v>0.315233382683713</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4182682373131684</v>
+        <v>0.4062578491907604</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2983698568466868</v>
+        <v>0.2894778495367252</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4596749337268786</v>
+        <v>0.4831025279984891</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2204382102045338</v>
+        <v>0.1732463699735543</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4331652691969205</v>
+        <v>0.4346222387910902</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2616472239675604</v>
+        <v>0.2467880920102156</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4629363370264805</v>
+        <v>0.4506226248498754</v>
       </c>
     </row>
     <row r="19">
@@ -1325,27 +1325,27 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.05934003569681934</v>
+        <v>0.06009939171770354</v>
       </c>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.06168040970451296</v>
+        <v>0.0648905107242476</v>
       </c>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="n">
-        <v>0.09405681356160904</v>
+        <v>0.09731668747400507</v>
       </c>
       <c r="I20" s="5" t="inlineStr"/>
       <c r="J20" s="5" t="n">
-        <v>0.2815213536507777</v>
+        <v>0.2811963384905402</v>
       </c>
       <c r="K20" s="5" t="inlineStr"/>
       <c r="L20" s="5" t="n">
-        <v>0.1174604362155468</v>
+        <v>0.1095857150912111</v>
       </c>
       <c r="M20" s="5" t="inlineStr"/>
       <c r="N20" s="5" t="n">
-        <v>0.2019401869895059</v>
+        <v>0.2097537973049712</v>
       </c>
     </row>
     <row r="21">
@@ -1357,27 +1357,27 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.4717929145684137</v>
+        <v>0.5311432470421515</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.2359600206034257</v>
+        <v>0.2384382689413634</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.4490904252831316</v>
+        <v>0.4894097622423867</v>
       </c>
       <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="n">
-        <v>0.4754519882309451</v>
+        <v>0.4837177901469303</v>
       </c>
       <c r="K21" s="5" t="inlineStr"/>
       <c r="L21" s="5" t="n">
-        <v>0.4008174581338213</v>
+        <v>0.4035550889569766</v>
       </c>
       <c r="M21" s="5" t="inlineStr"/>
       <c r="N21" s="5" t="n">
-        <v>0.3495545270827397</v>
+        <v>0.3427133914286375</v>
       </c>
     </row>
     <row r="22">
@@ -1441,31 +1441,31 @@
       </c>
       <c r="E23" s="5" t="inlineStr"/>
       <c r="F23" s="5" t="n">
-        <v>0.06443835839654949</v>
+        <v>0.06183455546546966</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.05989152710908552</v>
+        <v>0.05863880226298534</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02161544311675867</v>
+        <v>0.02195378271479134</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.165572812073946</v>
+        <v>0.1684423133346935</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.0404812906126261</v>
+        <v>0.04084152143048</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01454975441781031</v>
+        <v>0.01452627347654202</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1586828967832259</v>
+        <v>0.1580069872996456</v>
       </c>
     </row>
     <row r="24">
@@ -1477,35 +1477,35 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.1650795946489447</v>
+        <v>0.1653576936780665</v>
       </c>
       <c r="E24" s="5" t="inlineStr"/>
       <c r="F24" s="5" t="n">
-        <v>0.3642434033910863</v>
+        <v>0.3634443991076129</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.141344812747006</v>
+        <v>0.1221763630054961</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2609574010161395</v>
+        <v>0.2642543942322141</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.192585665321654</v>
+        <v>0.2006976584920491</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3458202067167493</v>
+        <v>0.3442625017996555</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1101779424045488</v>
+        <v>0.08072983865058599</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1799662680904067</v>
+        <v>0.1738029791798708</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1348132945944933</v>
+        <v>0.1367563494427148</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3125191124370135</v>
+        <v>0.3080115283873093</v>
       </c>
     </row>
     <row r="25">
@@ -1571,31 +1571,31 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03351758581199829</v>
+        <v>0.0328909835305965</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01949069755731398</v>
+        <v>0.01896282795872364</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04555213282737772</v>
+        <v>0.04516036925661285</v>
       </c>
       <c r="I26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1095466156362963</v>
+        <v>0.112011616469787</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01184533201269075</v>
+        <v>0.01428805520815408</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.03156242758081262</v>
+        <v>0.03077613404482234</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1070186498261933</v>
+        <v>0.1055184246609638</v>
       </c>
     </row>
     <row r="27">
@@ -1606,38 +1606,38 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.105843126088704</v>
+        <v>0.130920455593199</v>
       </c>
       <c r="D27" s="5" t="inlineStr"/>
       <c r="E27" s="5" t="n">
-        <v>0.2132093490240964</v>
+        <v>0.1793394742745444</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2836529445923296</v>
+        <v>0.2470867696722099</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1891475807848356</v>
+        <v>0.1783083814935102</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2592556105475216</v>
+        <v>0.2395355434330249</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1134802943571977</v>
+        <v>0.1085262569735479</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2634722233792984</v>
+        <v>0.2686803220542984</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1104465781492358</v>
+        <v>0.123722028207953</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1805054000463047</v>
+        <v>0.1644625623830289</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.0893823092312703</v>
+        <v>0.09813737037593927</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.235115651355939</v>
+        <v>0.239497326431545</v>
       </c>
     </row>
     <row r="28">
@@ -1673,7 +1673,7 @@
         <v>0.06565127743669241</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.2431065017285929</v>
+        <v>0.243106501728593</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.02932022657278614</v>
@@ -1699,37 +1699,37 @@
         <v>0</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.04332457320948793</v>
+        <v>0.04381812348180521</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.02095926584904622</v>
+        <v>0.020006872367545</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.136087446431692</v>
+        <v>0.1302821596602174</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.01910310463556389</v>
+        <v>0.01991670491842906</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1447247939660779</v>
+        <v>0.141046188633938</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.03716803134611572</v>
+        <v>0.03705637376115754</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.210921982752649</v>
+        <v>0.2118736230973851</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.01468680890088219</v>
+        <v>0.01307648163711771</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1160705975750892</v>
+        <v>0.1177630973217805</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.0370567464625828</v>
+        <v>0.03809458874525237</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.197067673563111</v>
+        <v>0.1980521916810823</v>
       </c>
     </row>
     <row r="30">
@@ -1740,40 +1740,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.03017721710530534</v>
+        <v>0.03369926276941276</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1384186635564052</v>
+        <v>0.1358598957965791</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.09311811710643372</v>
+        <v>0.0963499990972659</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2353682027443594</v>
+        <v>0.2331980904991981</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.07822511526908539</v>
+        <v>0.0737946686753128</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2383135323022577</v>
+        <v>0.2379631019614067</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.103373137835541</v>
+        <v>0.1081007504671799</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2797732381955032</v>
+        <v>0.2794386144205389</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.0509392718522156</v>
+        <v>0.05094618404394512</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1860733383515584</v>
+        <v>0.190059709729097</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.09261951122288357</v>
+        <v>0.09156691168983618</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2528345012014759</v>
+        <v>0.2521834645006395</v>
       </c>
     </row>
     <row r="31">
@@ -2052,30 +2052,30 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>745</v>
+        <v>759</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>3329</v>
+        <v>3258</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2182</v>
+        <v>2196</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>7036</v>
+        <v>6967</v>
       </c>
       <c r="K6" s="6" t="inlineStr"/>
       <c r="L6" s="6" t="n">
-        <v>4145</v>
+        <v>4068</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>4567</v>
+        <v>4764</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>8943</v>
+        <v>9487</v>
       </c>
     </row>
     <row r="7">
@@ -2087,33 +2087,33 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>3916</v>
+        <v>4895</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5684</v>
+        <v>6444</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>6533</v>
+        <v>6663</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>12888</v>
+        <v>12970</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>11407</v>
+        <v>11443</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>14636</v>
+        <v>14945</v>
       </c>
       <c r="K7" s="6" t="inlineStr"/>
       <c r="L7" s="6" t="n">
-        <v>14308</v>
+        <v>14096</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>15295</v>
+        <v>15302</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>19166</v>
+        <v>19103</v>
       </c>
     </row>
     <row r="8">
@@ -2221,31 +2221,31 @@
       </c>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3302</v>
+        <v>3393</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5459</v>
+        <v>5497</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>4361</v>
+        <v>5259</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>7431</v>
+        <v>7639</v>
       </c>
     </row>
     <row r="11">
@@ -2257,35 +2257,35 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>6592</v>
+        <v>7294</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>6476</v>
+        <v>6431</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>6133</v>
+        <v>5604</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>13618</v>
+        <v>14570</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>7633</v>
+        <v>6256</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>14415</v>
+        <v>14442</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>4390</v>
+        <v>4518</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>16783</v>
+        <v>17481</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>7228</v>
+        <v>5587</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>17880</v>
+        <v>17944</v>
       </c>
     </row>
     <row r="12">
@@ -2391,23 +2391,23 @@
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>2703</v>
+        <v>2361</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>5228</v>
+        <v>5241</v>
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>6777</v>
+        <v>6708</v>
       </c>
       <c r="K14" s="6" t="inlineStr"/>
       <c r="L14" s="6" t="n">
-        <v>4273</v>
+        <v>4385</v>
       </c>
       <c r="M14" s="6" t="inlineStr"/>
       <c r="N14" s="6" t="n">
-        <v>10863</v>
+        <v>11180</v>
       </c>
     </row>
     <row r="15">
@@ -2421,23 +2421,23 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>8712</v>
+        <v>8524</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>14763</v>
+        <v>14945</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>14869</v>
+        <v>14993</v>
       </c>
       <c r="K15" s="6" t="inlineStr"/>
       <c r="L15" s="6" t="n">
-        <v>16120</v>
+        <v>16081</v>
       </c>
       <c r="M15" s="6" t="inlineStr"/>
       <c r="N15" s="6" t="n">
-        <v>20944</v>
+        <v>21552</v>
       </c>
     </row>
     <row r="16">
@@ -2545,31 +2545,31 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3606</v>
+        <v>3564</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1034</v>
+        <v>1065</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1160</v>
+        <v>1173</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>7343</v>
+        <v>7442</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1172</v>
+        <v>1181</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1281</v>
+        <v>1372</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>12380</v>
+        <v>12516</v>
       </c>
     </row>
     <row r="19">
@@ -2582,34 +2582,34 @@
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>5569</v>
+        <v>5412</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>9808</v>
+        <v>10156</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>9100</v>
+        <v>8052</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>10675</v>
+        <v>9908</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>7744</v>
+        <v>8127</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>14112</v>
+        <v>14335</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>8668</v>
+        <v>8535</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>10230</v>
+        <v>9354</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>10187</v>
+        <v>10835</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>21870</v>
+        <v>22468</v>
       </c>
     </row>
     <row r="20">
@@ -2713,35 +2713,35 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>1099</v>
+        <v>1116</v>
       </c>
       <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="n">
-        <v>1471</v>
+        <v>1033</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2072</v>
+        <v>1968</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3133</v>
+        <v>3356</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4322</v>
+        <v>4222</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>5719</v>
+        <v>5275</v>
       </c>
     </row>
     <row r="23">
@@ -2753,35 +2753,35 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>6765</v>
+        <v>6787</v>
       </c>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>5156</v>
+        <v>5077</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>4866</v>
+        <v>4923</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>10566</v>
+        <v>10262</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>7209</v>
+        <v>6994</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>7723</v>
+        <v>8117</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>5347</v>
+        <v>4202</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>14830</v>
+        <v>14880</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>7612</v>
+        <v>7179</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>11573</v>
+        <v>11265</v>
       </c>
     </row>
     <row r="24">
@@ -2885,27 +2885,27 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>1073</v>
+        <v>1087</v>
       </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>1494</v>
+        <v>1572</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
-        <v>2002</v>
+        <v>2071</v>
       </c>
       <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="n">
-        <v>9050</v>
+        <v>9040</v>
       </c>
       <c r="K26" s="6" t="inlineStr"/>
       <c r="L26" s="6" t="n">
-        <v>4624</v>
+        <v>4314</v>
       </c>
       <c r="M26" s="6" t="inlineStr"/>
       <c r="N26" s="6" t="n">
-        <v>11384</v>
+        <v>11825</v>
       </c>
     </row>
     <row r="27">
@@ -2917,27 +2917,27 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>8531</v>
+        <v>9604</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>5716</v>
+        <v>5776</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>9558</v>
+        <v>10416</v>
       </c>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>15285</v>
+        <v>15551</v>
       </c>
       <c r="K27" s="6" t="inlineStr"/>
       <c r="L27" s="6" t="n">
-        <v>15778</v>
+        <v>15886</v>
       </c>
       <c r="M27" s="6" t="inlineStr"/>
       <c r="N27" s="6" t="n">
-        <v>19706</v>
+        <v>19320</v>
       </c>
     </row>
     <row r="28">
@@ -3045,31 +3045,31 @@
       </c>
       <c r="E30" s="6" t="inlineStr"/>
       <c r="F30" s="6" t="n">
-        <v>1842</v>
+        <v>1768</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2957</v>
+        <v>2895</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1217</v>
+        <v>1237</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>10807</v>
+        <v>10994</v>
       </c>
       <c r="K30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>3186</v>
+        <v>3214</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>14894</v>
+        <v>14831</v>
       </c>
     </row>
     <row r="31">
@@ -3081,35 +3081,35 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>4841</v>
+        <v>4849</v>
       </c>
       <c r="E31" s="6" t="inlineStr"/>
       <c r="F31" s="6" t="n">
-        <v>10414</v>
+        <v>10392</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>5537</v>
+        <v>4786</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>12883</v>
+        <v>13045</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>10847</v>
+        <v>11304</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>22571</v>
+        <v>22470</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>6378</v>
+        <v>4673</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>14162</v>
+        <v>13677</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>11156</v>
+        <v>11317</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>29333</v>
+        <v>28910</v>
       </c>
     </row>
     <row r="32">
@@ -3219,31 +3219,31 @@
         <v>0</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>927</v>
+        <v>902</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2136</v>
+        <v>2118</v>
       </c>
       <c r="I34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>7483</v>
+        <v>7651</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>948</v>
+        <v>1144</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>2137</v>
+        <v>2084</v>
       </c>
       <c r="M34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>9389</v>
+        <v>9257</v>
       </c>
     </row>
     <row r="35">
@@ -3254,38 +3254,38 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>3440</v>
+        <v>4255</v>
       </c>
       <c r="D35" s="6" t="inlineStr"/>
       <c r="E35" s="6" t="n">
-        <v>5274</v>
+        <v>4436</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>5510</v>
+        <v>4799</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>8996</v>
+        <v>8480</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>12156</v>
+        <v>11232</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>6318</v>
+        <v>6042</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>17997</v>
+        <v>18353</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>8842</v>
+        <v>9905</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>12223</v>
+        <v>11137</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>7187</v>
+        <v>7891</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>20627</v>
+        <v>21012</v>
       </c>
     </row>
     <row r="36">
@@ -3391,37 +3391,37 @@
         <v>0</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>6333</v>
+        <v>6405</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2546</v>
+        <v>2430</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>23015</v>
+        <v>22033</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>4411</v>
+        <v>4599</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>40455</v>
+        <v>39427</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>9937</v>
+        <v>9908</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>75350</v>
+        <v>75690</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>5251</v>
+        <v>4675</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>49411</v>
+        <v>50132</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>14408</v>
+        <v>14812</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>103729</v>
+        <v>104247</v>
       </c>
     </row>
     <row r="39">
@@ -3432,40 +3432,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3820</v>
+        <v>4266</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>20232</v>
+        <v>19858</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>11310</v>
+        <v>11702</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>39806</v>
+        <v>39439</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>18064</v>
+        <v>17041</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>66616</v>
+        <v>66518</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>27638</v>
+        <v>28902</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>99946</v>
+        <v>99827</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>18211</v>
+        <v>18213</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>79211</v>
+        <v>80908</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>36012</v>
+        <v>35603</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>133082</v>
+        <v>132740</v>
       </c>
     </row>
     <row r="40">
